--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>771992.4122286221</v>
+        <v>775311.9585015267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -665,67 +665,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>70.63583960161013</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="V5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>152.175786527775</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>105.3690580549764</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>113.950365236779</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>47.29627918133471</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>97.08873955668993</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,58 +1850,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.08996952524213</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>26.92846591669594</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.41978777916125</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>4.140379606178955</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>70.66291100094264</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,25 +2682,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>111.5956816229593</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>131.3980055647953</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,19 +3199,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3348,25 +3348,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>76.08654138491386</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>116.8792474988037</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>84.0572199420196</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>24.69913347639149</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>5.211223902333169</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>205.5178444382804</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>42.1462917273642</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4358,22 +4358,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,16 +4410,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4437,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4516,22 +4516,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4574,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="V5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4650,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M6" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X6" t="n">
-        <v>508.0442035175087</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.0442035175087</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4805,10 +4805,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>224.7893424687375</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5005,7 +5005,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>660.5968149695918</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>660.5968149695918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>660.5968149695918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,43 +5048,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y11" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5127,10 +5127,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5154,16 +5154,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>774.2973583780361</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W12" t="n">
-        <v>774.2973583780361</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7035761171468</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5273,7 +5273,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5288,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>724.0019438574752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>724.0019438574752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5364,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.0019438574752</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>428.8733789897854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>428.8733789897854</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>279.9389693285341</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>279.9389693285341</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,16 +5595,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>892.2491054851391</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>892.2491054851391</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>892.2491054851391</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>664.0254872215281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>428.8733789897854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>428.8733789897854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>428.8733789897854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>428.8733789897854</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5692,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5832,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,25 +6008,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
         <v>262.7299197543128</v>
@@ -6078,37 +6078,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6172,10 +6172,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>183.4549323908569</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C27" t="n">
-        <v>183.4549323908569</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D27" t="n">
-        <v>183.4549323908569</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E27" t="n">
-        <v>24.21747738540142</v>
+        <v>295.0807182769926</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>295.0807182769926</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>634.6640077999109</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W27" t="n">
-        <v>391.2152311558108</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X27" t="n">
-        <v>391.2152311558108</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.4549323908569</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>466.4486707798429</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>291.9956414987158</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>291.9956414987158</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>132.7581864932603</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>132.7581864932603</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>634.6640077999109</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>634.6640077999109</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>634.6640077999109</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>634.6640077999109</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6637,19 +6637,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.0064012564706</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>152.0064012564706</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>152.0064012564706</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6813,16 +6813,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>527.9820370414925</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>320.2217382765386</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6847,16 +6847,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K34" t="n">
         <v>829.5248650203655</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>456.7918502977974</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C36" t="n">
-        <v>282.3388210166704</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4044113554191</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>887.2020632026424</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>685.0154685614084</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>456.7918502977974</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>456.7918502977974</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>456.7918502977974</v>
+        <v>845.9973095522487</v>
       </c>
       <c r="X36" t="n">
-        <v>456.7918502977974</v>
+        <v>845.9973095522487</v>
       </c>
       <c r="Y36" t="n">
-        <v>456.7918502977974</v>
+        <v>638.2370107872948</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
+        <v>495.259035872464</v>
+      </c>
+      <c r="D38" t="n">
+        <v>495.259035872464</v>
+      </c>
+      <c r="E38" t="n">
+        <v>495.259035872464</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>879.1508727409195</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="S39" t="n">
-        <v>705.7335281915883</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="T39" t="n">
-        <v>705.7335281915883</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7351,31 +7351,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7412,49 +7412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C42" t="n">
-        <v>440.0245662111054</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7494,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>715.637985778398</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7679,19 +7679,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>398.4882390970787</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>190.8944568361894</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>190.8944568361894</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7843,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8067,10 +8067,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>201.9320071929585</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,13 +8775,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9012,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9726,7 +9726,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11388,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22638,10 +22638,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22677,13 +22677,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>162.1647475478151</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22838,10 +22838,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>19.50738457606286</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>100.4039271485011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23024,19 +23024,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7446179241406</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>318.3145018902242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>355.086939215966</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23394,10 +23394,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>185.5043079680906</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>108.5939562206144</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.06786462740101</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,10 +23865,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,19 +23975,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>391.48972136523</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,19 +24017,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>85.30697831980052</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="23">
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>166.9258651286752</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>128.0146919313124</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>140.9288327872049</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>66.68060616226799</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>53.65328853429916</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>25.74783554025137</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,25 +24959,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>26.24707489060569</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,19 +25087,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25236,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>95.59662971892396</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>134.8157356621159</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,13 +25330,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>16.10061421062353</v>
+        <v>10.95062675665302</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25567,10 +25567,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,10 +25628,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>183.6536234539903</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>122.7459320882473</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>166.4719472015047</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25877,7 +25877,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,7 +25919,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>122.2344140318545</v>
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>183.7950903536106</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>425945.6329543156</v>
+        <v>425945.6329543157</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448633.8158345976</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448633.8158345976</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="15">
@@ -26341,7 +26341,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="L2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.5380250658</v>
       </c>
       <c r="M2" t="n">
         <v>132928.5380250659</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10667.81896658841</v>
+        <v>11055.46038547476</v>
       </c>
       <c r="C6" t="n">
-        <v>79541.57554827826</v>
+        <v>79929.2169671646</v>
       </c>
       <c r="D6" t="n">
-        <v>79541.57554827823</v>
+        <v>79929.2169671646</v>
       </c>
       <c r="E6" t="n">
-        <v>113169.1755482782</v>
+        <v>113556.8169671646</v>
       </c>
       <c r="F6" t="n">
-        <v>113169.1755482783</v>
+        <v>113556.8169671646</v>
       </c>
       <c r="G6" t="n">
-        <v>107957.7206169899</v>
+        <v>108366.2937894332</v>
       </c>
       <c r="H6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="I6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636002</v>
       </c>
       <c r="J6" t="n">
-        <v>63914.25270094757</v>
+        <v>64322.82587339084</v>
       </c>
       <c r="K6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="L6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636002</v>
       </c>
       <c r="M6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="N6" t="n">
-        <v>117686.763591157</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="O6" t="n">
-        <v>113169.1755482782</v>
+        <v>113556.8169671646</v>
       </c>
       <c r="P6" t="n">
-        <v>113169.1755482783</v>
+        <v>113556.8169671646</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34787,10 +34787,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>70.5902951096252</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38108,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>775311.9585015267</v>
+        <v>776096.1044395558</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>72.57189745927086</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -896,73 +898,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>24.5537323853639</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>152.175786527775</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>62.04017698392174</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.15099944008764</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>14.48693373137006</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>103.8399091482598</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2087,67 +2089,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>23.81301614990503</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>26.92846591669594</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>134.6666255270818</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>44.07205194796424</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2567,53 +2569,53 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>21.85442600983729</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>47.59845531230102</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>70.66291100094264</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2731,55 +2733,55 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,58 +2809,58 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E30" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>84.41978777916125</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.609021946079816</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>116.8792474988037</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33.6917669883161</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3740,11 +3742,11 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>171.0294181666926</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5.211223902333169</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>139.2037313894189</v>
       </c>
     </row>
     <row r="43">
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>171.0294181666926</v>
@@ -4141,55 +4143,55 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="V3" t="n">
-        <v>16.44142755506243</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>748.7664308245652</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>748.7664308245652</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4531,7 +4533,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,13 +4576,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="H6" t="n">
         <v>107.4951893506917</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>567.1889326213861</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>567.1889326213861</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>567.1889326213861</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>359.5951503604969</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>359.5951503604969</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X6" t="n">
-        <v>359.5951503604969</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4805,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4884,13 +4886,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>658.2350028677025</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5005,7 +5007,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5048,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>807.4381113577983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>599.8443290969091</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,43 +5366,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>273.858482543704</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>124.9240728824528</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>124.9240728824528</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>124.9240728824528</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>124.9240728824528</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,10 +5603,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="19">
@@ -5692,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C21" t="n">
-        <v>136.7812428759814</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5865,16 +5867,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>828.0302610388364</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6166,10 +6168,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>941.9819777229218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="E27" t="n">
-        <v>295.0807182769926</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F27" t="n">
-        <v>295.0807182769926</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y27" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
         <v>829.5248650203655</v>
@@ -6427,7 +6429,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,28 +6484,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D30" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
@@ -6686,10 +6688,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>638.2370107872948</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C36" t="n">
-        <v>463.7839815061678</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>845.9973095522487</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>845.9973095522487</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>638.2370107872948</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>873.9488652116563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>873.9488652116563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>873.9488652116563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>873.9488652116563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>638.7967569799137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>395.3479803358136</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="40">
@@ -7321,13 +7323,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7415,7 +7417,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
-        <v>549.2141532458947</v>
-      </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7512,25 +7514,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X42" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y42" t="n">
         <v>508.0442035175087</v>
@@ -7606,10 +7608,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
         <v>687.5390872628509</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7655,13 +7657,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7679,19 +7681,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X44" t="n">
         <v>604.3859801240053</v>
       </c>
-      <c r="V44" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="W44" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="X44" t="n">
-        <v>396.792197863116</v>
-      </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
         <v>16.44142755506243</v>
@@ -7837,19 +7839,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8222,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,10 +9014,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,10 +11065,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11142,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>375.7250463016238</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22592,25 +22594,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -22626,22 +22628,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>127.5928312355507</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="5">
@@ -22784,10 +22786,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22875,10 +22877,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.68171185113256</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>19.50738457606286</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23087,7 +23089,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23103,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>109.6429941199161</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.66257839606692</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
@@ -23303,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>355.086939215966</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>218.3136534180552</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>85.4677721317848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.39553508823667</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>180.9206650946078</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>391.48972136523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>85.30697831980052</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24105,7 +24107,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>98.13396162234349</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3730136166745</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>128.0146919313124</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>110.0466251430999</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>66.68060616226799</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24764,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E30" t="n">
-        <v>53.65328853429916</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6760617849701</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>101.9696404144226</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>128.5926628167762</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>79.78761090533526</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>134.8157356621159</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.95062675665302</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,13 +25529,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25628,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539903</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>166.4719472015047</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>66.47896438788541</v>
       </c>
     </row>
     <row r="43">
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>215.208520489361</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="15">
@@ -26341,7 +26343,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="L2" t="n">
-        <v>132928.5380250658</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="M2" t="n">
         <v>132928.5380250659</v>
@@ -26433,7 +26435,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26540,16 +26542,16 @@
         <v>118095.3367636003</v>
       </c>
       <c r="I6" t="n">
-        <v>118095.3367636002</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="J6" t="n">
-        <v>64322.82587339084</v>
+        <v>64322.82587339083</v>
       </c>
       <c r="K6" t="n">
         <v>118095.3367636003</v>
       </c>
       <c r="L6" t="n">
-        <v>118095.3367636002</v>
+        <v>118095.3367636003</v>
       </c>
       <c r="M6" t="n">
         <v>118095.3367636003</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,10 +35734,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,13 +35892,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37785,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>776096.1044395558</v>
+        <v>671863.6061761123</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>72.57189745927086</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>24.5537323853639</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>62.04017698392174</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>20.27464243524799</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>205.5178444382804</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>91.62348452982235</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>8.311618392921636</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,61 +1852,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>117.5784330035868</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>103.8399091482598</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1973,7 +1973,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>134.6666255270818</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0.06022194336185634</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>44.07205194796424</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="27">
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>47.59845531230102</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,26 +2791,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,52 +2967,52 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>47.50281385232029</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3198,58 +3198,58 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.609021946079816</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>33.6917669883161</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="C41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>129.7859457232457</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,70 +3982,70 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4336,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4357,25 +4357,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
         <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>255.5008658160403</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>748.7664308245652</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>574.3134015434382</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>574.3134015434382</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4415,16 +4415,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>748.7664308245652</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>748.7664308245652</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>748.7664308245652</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W3" t="n">
-        <v>748.7664308245652</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X3" t="n">
-        <v>748.7664308245652</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>748.7664308245652</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4518,19 +4518,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4576,43 +4576,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>339.8907214957869</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="E8" t="n">
         <v>199.2900309704538</v>
       </c>
-      <c r="C8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>450.6412206068132</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C9" t="n">
-        <v>450.6412206068132</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D9" t="n">
-        <v>301.706810945562</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>658.2350028677025</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>658.2350028677025</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>658.2350028677025</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>658.2350028677025</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>658.2350028677025</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>658.2350028677025</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>450.6412206068132</v>
+        <v>492.8286292418372</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5050,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5065,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5129,10 +5129,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,13 +5366,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5554,13 +5554,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>273.858482543704</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C18" t="n">
-        <v>273.858482543704</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D18" t="n">
-        <v>124.9240728824528</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="E18" t="n">
-        <v>124.9240728824528</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>124.9240728824528</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>124.9240728824528</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X18" t="n">
-        <v>481.618781308658</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y18" t="n">
-        <v>273.858482543704</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.9696854242497</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>828.0302610388364</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>584.5814843947364</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>376.7299841892036</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.9696854242497</v>
+        <v>761.8097306235821</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.424473941237</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C24" t="n">
-        <v>622.424473941237</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D24" t="n">
-        <v>577.9072497513741</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E24" t="n">
-        <v>418.6697947459187</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>327.2640844659515</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C27" t="n">
-        <v>327.2640844659515</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D27" t="n">
-        <v>327.2640844659515</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E27" t="n">
-        <v>279.1848366757484</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>327.2640844659515</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>327.2640844659515</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y27" t="n">
-        <v>327.2640844659515</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6451,10 +6451,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,22 +6484,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,7 +6548,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
         <v>506.1786963984129</v>
@@ -6688,10 +6688,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6739,13 +6739,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.73453560909468</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>67.26378336508171</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.73453560909468</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.424473941237</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>622.424473941237</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>473.4900642799857</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>314.2526092745302</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>167.7180513014152</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>28.98722588403072</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>28.98722588403072</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7028,13 +7028,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7314,13 +7314,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>281.1940859790329</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>648.6540332037905</v>
+        <v>488.7878682399222</v>
       </c>
       <c r="W42" t="n">
-        <v>648.6540332037905</v>
+        <v>488.7878682399222</v>
       </c>
       <c r="X42" t="n">
-        <v>648.6540332037905</v>
+        <v>281.1940859790329</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.0442035175087</v>
+        <v>281.1940859790329</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7760,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7984,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8075,7 +8075,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8224,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8777,13 +8777,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9014,16 +9014,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9959,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>375.7250463016238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="3">
@@ -22628,22 +22628,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>127.5928312355507</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>87.68171185113256</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,13 +23108,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>109.6429941199161</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>185.4080533420564</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>149.1651971824026</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>45.72003263338829</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23512,10 +23512,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1346420369061</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>191.8531103019</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>40.06664745181419</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.39553508823667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24028,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>98.13396162234349</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6224738339425</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>103.3730136166745</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.0341136990839</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0466251430999</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>183.340860750515</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>32.605133915851</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>101.9696404144226</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>64.73263038417618</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>79.78761090533526</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>103.6517501748945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>373.5228307925502</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>103.0146414261795</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>66.47896438788541</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>51.78046976818791</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>425945.6329543157</v>
+        <v>425945.6329543156</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>425945.6329543157</v>
+        <v>425945.6329543156</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345976</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="15">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11055.46038547476</v>
+        <v>-1582.701769385772</v>
       </c>
       <c r="C6" t="n">
-        <v>79929.2169671646</v>
+        <v>67291.05481230409</v>
       </c>
       <c r="D6" t="n">
-        <v>79929.2169671646</v>
+        <v>67291.05481230409</v>
       </c>
       <c r="E6" t="n">
-        <v>113556.8169671646</v>
+        <v>100918.6548123041</v>
       </c>
       <c r="F6" t="n">
-        <v>113556.8169671646</v>
+        <v>100918.6548123041</v>
       </c>
       <c r="G6" t="n">
-        <v>108366.2937894332</v>
+        <v>96148.28316939273</v>
       </c>
       <c r="H6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="I6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="J6" t="n">
-        <v>64322.82587339083</v>
+        <v>52104.8152533504</v>
       </c>
       <c r="K6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="L6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="M6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="N6" t="n">
-        <v>118095.3367636003</v>
+        <v>105877.3261435598</v>
       </c>
       <c r="O6" t="n">
-        <v>113556.8169671646</v>
+        <v>100918.6548123041</v>
       </c>
       <c r="P6" t="n">
-        <v>113556.8169671646</v>
+        <v>100918.6548123041</v>
       </c>
     </row>
   </sheetData>
@@ -34704,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34795,7 +34795,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35734,16 +35734,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
